--- a/dataset/sql_datasets/ceremony.xlsx
+++ b/dataset/sql_datasets/ceremony.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD608EEE-1AF5-4C64-89AB-C887F5AD0C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C4778-56DF-4D03-81E9-04D89FC4E329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="10690" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>idCeremony</t>
   </si>
@@ -36,12 +36,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>23 July 2021</t>
-  </si>
-  <si>
-    <t>8 August 2021</t>
-  </si>
-  <si>
     <t>12:00 WEST</t>
   </si>
 </sst>
@@ -49,6 +43,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,54 +364,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <v>44400</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3" s="1">
+        <v>44416</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataset/sql_datasets/ceremony.xlsx
+++ b/dataset/sql_datasets/ceremony.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\uni\BD\dataset\sql_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55C4778-56DF-4D03-81E9-04D89FC4E329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6AFB89-9162-4D2E-9D72-93F69BE3EFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="28995" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
-  <si>
-    <t>idCeremony</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>12:00 WEST</t>
   </si>
@@ -44,7 +35,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,7 +74,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,41 +370,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>44400</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>44400</v>
+        <v>44416</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44416</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G5" s="1"/>
-      <c r="I5" s="1"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
